--- a/落花-统计打卡.xlsx
+++ b/落花-统计打卡.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12615" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8.13-8.18" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="305">
   <si>
     <t>QQ</t>
   </si>
@@ -880,483 +880,30 @@
     <t>ฅ稷晞</t>
   </si>
   <si>
-    <t>10:21:17</t>
-  </si>
-  <si>
-    <t>09:20:45</t>
-  </si>
-  <si>
-    <t>09:13:44</t>
-  </si>
-  <si>
-    <t>10:55:46</t>
-  </si>
-  <si>
-    <t>17:51:22</t>
-  </si>
-  <si>
-    <t>12:22:45</t>
-  </si>
-  <si>
-    <t>10:48:54</t>
-  </si>
-  <si>
-    <t>14:22:10</t>
-  </si>
-  <si>
-    <t>11:43:55</t>
-  </si>
-  <si>
-    <t>06:58:19</t>
-  </si>
-  <si>
-    <t>08:25:37</t>
-  </si>
-  <si>
-    <t>11:14:16</t>
-  </si>
-  <si>
-    <t>13:52:24</t>
-  </si>
-  <si>
-    <t>14:52:33</t>
-  </si>
-  <si>
-    <t>19:16:07</t>
-  </si>
-  <si>
-    <t>19:19:57</t>
-  </si>
-  <si>
-    <t>10:18:44</t>
-  </si>
-  <si>
-    <t>09:56:52</t>
-  </si>
-  <si>
-    <t>09:42:41</t>
-  </si>
-  <si>
-    <t>12:46:04</t>
-  </si>
-  <si>
-    <t>10:15:17</t>
-  </si>
-  <si>
-    <t>11:42:58</t>
-  </si>
-  <si>
-    <t>10:45:27</t>
-  </si>
-  <si>
-    <t>11:52:05</t>
-  </si>
-  <si>
-    <t>11:27:57</t>
-  </si>
-  <si>
-    <t>14:55:15</t>
-  </si>
-  <si>
-    <t>19:17:38</t>
-  </si>
-  <si>
-    <t>11:33:11</t>
-  </si>
-  <si>
-    <t>10:11:34</t>
-  </si>
-  <si>
-    <t>10:19:15</t>
-  </si>
-  <si>
-    <t>13:28:24</t>
-  </si>
-  <si>
-    <t>11:52:54</t>
-  </si>
-  <si>
-    <t>19:34:47</t>
-  </si>
-  <si>
-    <t>08:17:32</t>
-  </si>
-  <si>
-    <t>15:24:26</t>
-  </si>
-  <si>
-    <t>14:37:57</t>
-  </si>
-  <si>
-    <t>10:23:49</t>
-  </si>
-  <si>
-    <t>11:43:42</t>
-  </si>
-  <si>
-    <t>20:46:42</t>
-  </si>
-  <si>
-    <t>17:59:49</t>
-  </si>
-  <si>
-    <t>11:00:08</t>
-  </si>
-  <si>
-    <t>07:57:42</t>
-  </si>
-  <si>
-    <t>14:52:03</t>
-  </si>
-  <si>
-    <t>07:41:51</t>
-  </si>
-  <si>
-    <t>19:35:34</t>
-  </si>
-  <si>
-    <t>13:26:18</t>
-  </si>
-  <si>
-    <t>12:16:49</t>
-  </si>
-  <si>
-    <t>20:10:01</t>
-  </si>
-  <si>
-    <t>07:24:47</t>
-  </si>
-  <si>
-    <t>19:23:09</t>
-  </si>
-  <si>
-    <t>19:40:46</t>
-  </si>
-  <si>
-    <t>19:49:12</t>
-  </si>
-  <si>
-    <t>23:56:29</t>
-  </si>
-  <si>
-    <t>19:55:10</t>
-  </si>
-  <si>
-    <t>13:57:46</t>
-  </si>
-  <si>
-    <t>08:47:16</t>
-  </si>
-  <si>
-    <t>10:44:21</t>
-  </si>
-  <si>
-    <t>10:12:00</t>
-  </si>
-  <si>
-    <t>09:41:38</t>
-  </si>
-  <si>
-    <t>13:01:53</t>
-  </si>
-  <si>
-    <t>19:08:06</t>
-  </si>
-  <si>
-    <t>19:17:43</t>
-  </si>
-  <si>
-    <t>12:05:44</t>
-  </si>
-  <si>
-    <t>19:59:47</t>
-  </si>
-  <si>
-    <t>12:34:52</t>
-  </si>
-  <si>
-    <t>19:37:19</t>
-  </si>
-  <si>
-    <t>12:34:02</t>
-  </si>
-  <si>
-    <t>16:58:43</t>
-  </si>
-  <si>
-    <t>09:59:29</t>
-  </si>
-  <si>
-    <t>10:11:12</t>
-  </si>
-  <si>
-    <t>13:26:09</t>
-  </si>
-  <si>
-    <t>12:37:53</t>
-  </si>
-  <si>
-    <t>20:24:53</t>
-  </si>
-  <si>
-    <t>18:47:49</t>
-  </si>
-  <si>
-    <t>10:12:28</t>
-  </si>
-  <si>
-    <t>10:36:20</t>
-  </si>
-  <si>
-    <t>09:17:55</t>
-  </si>
-  <si>
-    <t>21:00:45</t>
-  </si>
-  <si>
-    <t>19:30:53</t>
-  </si>
-  <si>
-    <t>13:02:58</t>
-  </si>
-  <si>
-    <t>19:09:39</t>
-  </si>
-  <si>
-    <t>19:08:23</t>
-  </si>
-  <si>
-    <t>23:22:00</t>
-  </si>
-  <si>
-    <t>19:16:25</t>
-  </si>
-  <si>
-    <t>19:27:01</t>
-  </si>
-  <si>
-    <t>19:43:26</t>
-  </si>
-  <si>
-    <t>20:18:30</t>
-  </si>
-  <si>
-    <t>11:48:18</t>
-  </si>
-  <si>
-    <t>23:13:20</t>
-  </si>
-  <si>
-    <t>12:30:01</t>
-  </si>
-  <si>
-    <t>10:23:45</t>
-  </si>
-  <si>
-    <t>10:58:04</t>
-  </si>
-  <si>
-    <t>19:14:59</t>
-  </si>
-  <si>
-    <t>18:49:18</t>
-  </si>
-  <si>
-    <t>19:44:38</t>
-  </si>
-  <si>
-    <t>13:01:41</t>
-  </si>
-  <si>
-    <t>22:16:12</t>
-  </si>
-  <si>
-    <t>10:53:58</t>
-  </si>
-  <si>
-    <t>07:27:09</t>
-  </si>
-  <si>
-    <t>18:36:51</t>
-  </si>
-  <si>
-    <t>10:09:02</t>
-  </si>
-  <si>
-    <t>09:35:14</t>
-  </si>
-  <si>
-    <t>08:53:50</t>
-  </si>
-  <si>
-    <t>19:15:17</t>
-  </si>
-  <si>
-    <t>18:49:32</t>
-  </si>
-  <si>
-    <t>11:05:54</t>
-  </si>
-  <si>
-    <t>08:47:28</t>
-  </si>
-  <si>
-    <t>08:39:47</t>
-  </si>
-  <si>
-    <t>10:12:40</t>
-  </si>
-  <si>
-    <t>10:09:15</t>
-  </si>
-  <si>
-    <t>10:34:10</t>
-  </si>
-  <si>
-    <t>09:57:51</t>
-  </si>
-  <si>
-    <t>10:56:14</t>
-  </si>
-  <si>
-    <t>12:52:26</t>
-  </si>
-  <si>
-    <t>19:32:50</t>
-  </si>
-  <si>
-    <t>19:47:52</t>
-  </si>
-  <si>
-    <t>14:58:52</t>
-  </si>
-  <si>
-    <t>12:47:50</t>
-  </si>
-  <si>
-    <t>10:05:40</t>
-  </si>
-  <si>
-    <t>14:34:02</t>
-  </si>
-  <si>
-    <t>13:25:25</t>
-  </si>
-  <si>
-    <t>12:24:36</t>
-  </si>
-  <si>
-    <t>20:13:39</t>
-  </si>
-  <si>
-    <t>19:57:58</t>
-  </si>
-  <si>
-    <t>13:42:57</t>
-  </si>
-  <si>
-    <t>10:08:23</t>
-  </si>
-  <si>
-    <t>07:14:59</t>
-  </si>
-  <si>
-    <t>07:16:10</t>
-  </si>
-  <si>
-    <t>13:28:13</t>
-  </si>
-  <si>
-    <t>20:12:32</t>
-  </si>
-  <si>
-    <t>10:20:01</t>
-  </si>
-  <si>
-    <t>12:59:17</t>
-  </si>
-  <si>
-    <t>10:12:05</t>
-  </si>
-  <si>
-    <t>11:00:17</t>
-  </si>
-  <si>
     <t>108932610</t>
   </si>
   <si>
-    <t>14:45:25</t>
-  </si>
-  <si>
-    <t>13:47:44</t>
-  </si>
-  <si>
-    <t>19:06:42</t>
-  </si>
-  <si>
     <t>2605384970</t>
   </si>
   <si>
-    <t>14:43:45</t>
-  </si>
-  <si>
-    <t>23:24:49</t>
-  </si>
-  <si>
-    <t>10:57:47</t>
-  </si>
-  <si>
-    <t>20:20:28</t>
-  </si>
-  <si>
-    <t>10:19:10</t>
-  </si>
-  <si>
     <t>641204920</t>
   </si>
   <si>
     <t>落花.一只花卿</t>
   </si>
   <si>
-    <t>10:26:16</t>
-  </si>
-  <si>
-    <t>10:35:08</t>
-  </si>
-  <si>
-    <t>10:37:11</t>
-  </si>
-  <si>
     <t>2413241525</t>
   </si>
   <si>
     <t>落花风采铃</t>
   </si>
   <si>
-    <t>09:45:23</t>
-  </si>
-  <si>
-    <t>09:14:40</t>
-  </si>
-  <si>
     <t>2126851254</t>
   </si>
   <si>
     <t>落花  啾啾哧哧</t>
   </si>
   <si>
-    <t>13:32:34</t>
-  </si>
-  <si>
-    <t>16:11:46</t>
-  </si>
-  <si>
-    <t>13:37:38</t>
-  </si>
-  <si>
-    <t>13:31:06</t>
-  </si>
-  <si>
     <t>16500928</t>
   </si>
   <si>
@@ -1379,6 +926,12 @@
   </si>
   <si>
     <t>落花 鱼渔</t>
+  </si>
+  <si>
+    <t>1055498540</t>
+  </si>
+  <si>
+    <t>落花加凛喵</t>
   </si>
 </sst>
 </file>
@@ -1386,11 +939,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1422,8 +975,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1436,8 +1044,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1451,74 +1097,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1526,33 +1104,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1573,7 +1126,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,19 +1282,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,151 +1300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,21 +1371,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1843,6 +1381,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1872,11 +1425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1901,17 +1460,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1921,10 +1474,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1933,16 +1486,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -1951,119 +1504,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="13">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2120,11 +1673,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2479,7 +2038,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7411,14 +6970,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AW96"/>
+  <dimension ref="A1:AU96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="W37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="V48" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB64" sqref="AA64:AB64"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:AX109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7431,20 +6990,20 @@
     <col min="7" max="7" width="9" style="15" customWidth="1"/>
     <col min="8" max="9" width="9" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="9" style="16"/>
+    <col min="13" max="13" width="9" style="16" customWidth="1"/>
     <col min="16" max="16" width="10.375" customWidth="1"/>
     <col min="18" max="18" width="9.375" customWidth="1"/>
-    <col min="19" max="19" width="9" style="16"/>
-    <col min="22" max="22" width="10.375" customWidth="1"/>
-    <col min="24" max="24" width="9.375"/>
+    <col min="19" max="19" width="9" style="16" customWidth="1"/>
+    <col min="22" max="23" width="10.375" customWidth="1"/>
+    <col min="24" max="24" width="9.375" customWidth="1"/>
     <col min="25" max="25" width="9.375" style="16" customWidth="1"/>
     <col min="28" max="28" width="10.375" customWidth="1"/>
     <col min="34" max="34" width="10.375" customWidth="1"/>
     <col min="40" max="40" width="10.375" customWidth="1"/>
-    <col min="46" max="46" width="10.25" customWidth="1"/>
+    <col min="46" max="46" width="12.625" customWidth="1"/>
     <col min="48" max="48" width="15.25" customWidth="1"/>
     <col min="49" max="49" width="11.5" customWidth="1"/>
-    <col min="50" max="50" width="12.625"/>
+    <col min="50" max="50" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:45">
@@ -7482,7 +7041,7 @@
       </c>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
+      <c r="AE1" s="15"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="5"/>
       <c r="AH1" s="3">
@@ -7490,7 +7049,7 @@
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
+      <c r="AK1" s="15"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="5"/>
       <c r="AN1" s="3">
@@ -7498,7 +7057,7 @@
       </c>
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
+      <c r="AQ1" s="15"/>
       <c r="AR1" s="4"/>
       <c r="AS1" s="5"/>
     </row>
@@ -7645,7 +7204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:45">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -7655,59 +7214,27 @@
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="21">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>115000</v>
-      </c>
-      <c r="F3">
-        <v>575000</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>287</v>
-      </c>
+      <c r="D3" s="21"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="16"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="21">
-        <v>5</v>
-      </c>
-      <c r="K3" s="4">
-        <v>100000</v>
-      </c>
-      <c r="L3" s="4">
-        <v>500000</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>288</v>
-      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="R3" s="4">
-        <v>440000</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>289</v>
-      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="15"/>
       <c r="T3" s="4"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="21">
-        <v>5</v>
-      </c>
-      <c r="W3" s="4">
-        <v>95000</v>
-      </c>
-      <c r="X3" s="4">
-        <v>475000</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>290</v>
-      </c>
+      <c r="V3" s="21"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="15"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="21"/>
@@ -7728,20 +7255,8 @@
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="5"/>
-      <c r="AT3">
-        <f t="shared" ref="AT3:AT66" si="0">F3+L3+R3+X3+AD3+AJ3+AP3</f>
-        <v>1990000</v>
-      </c>
-      <c r="AU3">
-        <f t="shared" ref="AU3:AU66" si="1">D3+J3+P3+V3+AB3+AH3+AN3</f>
-        <v>20</v>
-      </c>
-      <c r="AV3" t="str">
-        <f>IF(AU3=0,B3,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:49">
+    </row>
+    <row r="4" spans="1:45">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -7751,59 +7266,27 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="21">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>79000</v>
-      </c>
-      <c r="F4">
-        <v>790000</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>291</v>
-      </c>
+      <c r="D4" s="21"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="16"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="21">
-        <v>10</v>
-      </c>
-      <c r="K4" s="4">
-        <v>80000</v>
-      </c>
-      <c r="L4" s="4">
-        <v>800000</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>292</v>
-      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="4"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>80000</v>
-      </c>
-      <c r="R4" s="4">
-        <v>800000</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>293</v>
-      </c>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="15"/>
       <c r="T4" s="4"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="21">
-        <v>10</v>
-      </c>
-      <c r="W4" s="4">
-        <v>85000</v>
-      </c>
-      <c r="X4" s="4">
-        <v>850000</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>294</v>
-      </c>
+      <c r="V4" s="21"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="15"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="21"/>
@@ -7824,24 +7307,8 @@
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="5"/>
-      <c r="AT4">
-        <f t="shared" si="0"/>
-        <v>3240000</v>
-      </c>
-      <c r="AU4">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AV4" t="str">
-        <f t="shared" ref="AV4:AV35" si="2">IF(AU4=0,B4,"")</f>
-        <v/>
-      </c>
-      <c r="AW4" t="str">
-        <f t="shared" ref="AW4:AW35" si="3">IF(AU4=0,A4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:49">
+    </row>
+    <row r="5" spans="1:45">
       <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
@@ -7851,59 +7318,27 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="21">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>134000</v>
-      </c>
-      <c r="F5">
-        <v>1340000</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>295</v>
-      </c>
+      <c r="D5" s="21"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" s="16"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="21">
-        <v>5</v>
-      </c>
-      <c r="K5" s="4">
-        <v>105000</v>
-      </c>
-      <c r="L5" s="4">
-        <v>525000</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>296</v>
-      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>80000</v>
-      </c>
-      <c r="R5" s="4">
-        <v>400000</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>297</v>
-      </c>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="15"/>
       <c r="T5" s="4"/>
       <c r="U5" s="5"/>
-      <c r="V5" s="21">
-        <v>5</v>
-      </c>
-      <c r="W5" s="4">
-        <v>88000</v>
-      </c>
-      <c r="X5" s="4">
-        <v>440000</v>
-      </c>
-      <c r="Y5" s="15" t="s">
-        <v>298</v>
-      </c>
+      <c r="V5" s="21"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="15"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="21"/>
@@ -7924,24 +7359,8 @@
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="5"/>
-      <c r="AT5">
-        <f t="shared" si="0"/>
-        <v>2705000</v>
-      </c>
-      <c r="AU5">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="AV5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:49">
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6" s="19" t="s">
         <v>26</v>
       </c>
@@ -7951,59 +7370,27 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="21">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>95000</v>
-      </c>
-      <c r="F6">
-        <v>475000</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>299</v>
-      </c>
+      <c r="D6" s="21"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" s="16"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="21">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4">
-        <v>75000</v>
-      </c>
-      <c r="L6" s="4">
-        <v>375000</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>300</v>
-      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="4"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>79000</v>
-      </c>
-      <c r="R6" s="4">
-        <v>395000</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>301</v>
-      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="15"/>
       <c r="T6" s="4"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="21">
-        <v>5</v>
-      </c>
-      <c r="W6" s="4">
-        <v>91000</v>
-      </c>
-      <c r="X6" s="4">
-        <v>455000</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>302</v>
-      </c>
+      <c r="V6" s="21"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="15"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="21"/>
@@ -8024,24 +7411,8 @@
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="5"/>
-      <c r="AT6">
-        <f t="shared" si="0"/>
-        <v>1700000</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:49">
+    </row>
+    <row r="7" spans="1:45">
       <c r="A7" s="19" t="s">
         <v>32</v>
       </c>
@@ -8051,59 +7422,27 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="21">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>90000</v>
-      </c>
-      <c r="F7">
-        <v>450000</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>303</v>
-      </c>
+      <c r="D7" s="21"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="16"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="21">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4">
-        <v>84000</v>
-      </c>
-      <c r="L7" s="4">
-        <v>420000</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>304</v>
-      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>84000</v>
-      </c>
-      <c r="R7" s="4">
-        <v>420000</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>305</v>
-      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="15"/>
       <c r="T7" s="4"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="21">
-        <v>5</v>
-      </c>
-      <c r="W7" s="4">
-        <v>87000</v>
-      </c>
-      <c r="X7" s="4">
-        <v>435000</v>
-      </c>
-      <c r="Y7" s="15" t="s">
-        <v>306</v>
-      </c>
+      <c r="V7" s="21"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="15"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="21"/>
@@ -8124,24 +7463,8 @@
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4"/>
       <c r="AS7" s="5"/>
-      <c r="AT7">
-        <f t="shared" si="0"/>
-        <v>1725000</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:49">
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8" s="19" t="s">
         <v>38</v>
       </c>
@@ -8151,59 +7474,27 @@
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>70000</v>
-      </c>
-      <c r="F8">
-        <v>350000</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>307</v>
-      </c>
+      <c r="D8" s="21"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="16"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="21">
-        <v>5</v>
-      </c>
-      <c r="K8" s="4">
-        <v>70000</v>
-      </c>
-      <c r="L8" s="4">
-        <v>350000</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>308</v>
-      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="4"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>70000</v>
-      </c>
-      <c r="R8" s="4">
-        <v>350000</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>309</v>
-      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="15"/>
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="21">
-        <v>5</v>
-      </c>
-      <c r="W8" s="4">
-        <v>73000</v>
-      </c>
-      <c r="X8" s="4">
-        <v>365000</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>310</v>
-      </c>
+      <c r="V8" s="21"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="15"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="21"/>
@@ -8224,24 +7515,8 @@
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="5"/>
-      <c r="AT8">
-        <f t="shared" si="0"/>
-        <v>1415000</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:49">
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9" s="19" t="s">
         <v>44</v>
       </c>
@@ -8251,45 +7526,21 @@
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>73000</v>
-      </c>
-      <c r="F9">
-        <v>365000</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>311</v>
-      </c>
+      <c r="D9" s="21"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="16"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="21">
-        <v>5</v>
-      </c>
-      <c r="K9" s="4">
-        <v>59000</v>
-      </c>
-      <c r="L9" s="4">
-        <v>295000</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>312</v>
-      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="4"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>59000</v>
-      </c>
-      <c r="R9" s="4">
-        <v>295000</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>313</v>
-      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="15"/>
       <c r="T9" s="4"/>
       <c r="U9" s="5"/>
       <c r="V9" s="21"/>
@@ -8316,24 +7567,8 @@
       <c r="AQ9" s="4"/>
       <c r="AR9" s="4"/>
       <c r="AS9" s="5"/>
-      <c r="AT9">
-        <f t="shared" si="0"/>
-        <v>955000</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AV9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:49">
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10" s="19" t="s">
         <v>50</v>
       </c>
@@ -8343,59 +7578,27 @@
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="21">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>88000</v>
-      </c>
-      <c r="F10">
-        <v>440000</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>314</v>
-      </c>
+      <c r="D10" s="21"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="16"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="21">
-        <v>5</v>
-      </c>
-      <c r="K10" s="4">
-        <v>110000</v>
-      </c>
-      <c r="L10" s="4">
-        <v>550000</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>315</v>
-      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>88000</v>
-      </c>
-      <c r="R10" s="4">
-        <v>440000</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>316</v>
-      </c>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="15"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="21">
-        <v>5</v>
-      </c>
-      <c r="W10" s="4">
-        <v>88000</v>
-      </c>
-      <c r="X10" s="4">
-        <v>440000</v>
-      </c>
-      <c r="Y10" s="15" t="s">
-        <v>317</v>
-      </c>
+      <c r="V10" s="21"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="15"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="21"/>
@@ -8416,24 +7619,8 @@
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="5"/>
-      <c r="AT10">
-        <f t="shared" si="0"/>
-        <v>1870000</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:49">
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11" s="19" t="s">
         <v>56</v>
       </c>
@@ -8443,56 +7630,26 @@
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>100000</v>
-      </c>
-      <c r="F11">
-        <v>500000</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>318</v>
-      </c>
+      <c r="D11" s="21"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" s="16"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="21">
-        <v>5</v>
-      </c>
-      <c r="K11" s="4">
-        <v>74000</v>
-      </c>
-      <c r="L11" s="4">
-        <v>370000</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>319</v>
-      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>80000</v>
-      </c>
-      <c r="R11" s="4">
-        <v>400000</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>320</v>
-      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="15"/>
       <c r="T11" s="4"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="21">
-        <v>5</v>
-      </c>
-      <c r="W11" s="4">
-        <v>90000</v>
-      </c>
-      <c r="X11" s="4">
-        <v>450000</v>
-      </c>
+      <c r="V11" s="21"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="5"/>
@@ -8514,24 +7671,8 @@
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="5"/>
-      <c r="AT11">
-        <f t="shared" si="0"/>
-        <v>1720000</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:49">
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12" s="19" t="s">
         <v>62</v>
       </c>
@@ -8541,60 +7682,27 @@
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>53000</v>
-      </c>
-      <c r="F12">
-        <v>424000</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>321</v>
-      </c>
+      <c r="D12" s="21"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12" s="16"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="21">
-        <v>5</v>
-      </c>
-      <c r="K12" s="4">
-        <v>95000</v>
-      </c>
-      <c r="L12" s="4">
-        <v>475000</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>322</v>
-      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="4"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>96000</v>
-      </c>
-      <c r="R12" s="4">
-        <v>480000</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>323</v>
-      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="15"/>
       <c r="T12" s="4"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="21">
-        <v>5</v>
-      </c>
-      <c r="W12" s="4">
-        <v>95000</v>
-      </c>
-      <c r="X12" s="4">
-        <f>W12*V12</f>
-        <v>475000</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>0.871944444444444</v>
-      </c>
+      <c r="V12" s="21"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="15"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="21"/>
@@ -8615,24 +7723,8 @@
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
       <c r="AS12" s="5"/>
-      <c r="AT12">
-        <f t="shared" si="0"/>
-        <v>1854000</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="AV12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:49">
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13" s="19" t="s">
         <v>67</v>
       </c>
@@ -8642,57 +7734,26 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="21">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>84000</v>
-      </c>
-      <c r="F13">
-        <v>420000</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>324</v>
-      </c>
+      <c r="D13" s="21"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" s="16"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="21">
-        <v>5</v>
-      </c>
-      <c r="K13" s="4">
-        <v>74000</v>
-      </c>
-      <c r="L13" s="4">
-        <v>370000</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>325</v>
-      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="4"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>74000</v>
-      </c>
-      <c r="R13" s="4">
-        <v>370000</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>326</v>
-      </c>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="4"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="21">
-        <v>5</v>
-      </c>
-      <c r="W13" s="4">
-        <v>77000</v>
-      </c>
-      <c r="X13" s="4">
-        <f>W13*V13</f>
-        <v>385000</v>
-      </c>
+      <c r="V13" s="21"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="5"/>
@@ -8714,24 +7775,8 @@
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
       <c r="AS13" s="5"/>
-      <c r="AT13">
-        <f t="shared" si="0"/>
-        <v>1545000</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:49">
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14" s="19" t="s">
         <v>73</v>
       </c>
@@ -8741,45 +7786,21 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="21">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>35000</v>
-      </c>
-      <c r="F14">
-        <v>350000</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>75</v>
-      </c>
+      <c r="D14" s="21"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" s="16"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="21">
-        <v>5</v>
-      </c>
-      <c r="K14" s="4">
-        <v>70000</v>
-      </c>
-      <c r="L14" s="4">
-        <v>350000</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>327</v>
-      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="4"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>73000</v>
-      </c>
-      <c r="R14" s="4">
-        <v>365000</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>328</v>
-      </c>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="15"/>
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
       <c r="V14" s="21"/>
@@ -8806,24 +7827,8 @@
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
       <c r="AS14" s="5"/>
-      <c r="AT14">
-        <f t="shared" si="0"/>
-        <v>1065000</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:49">
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15" s="19" t="s">
         <v>79</v>
       </c>
@@ -8833,59 +7838,27 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="21">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>100000</v>
-      </c>
-      <c r="F15">
-        <v>500000</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>329</v>
-      </c>
+      <c r="D15" s="21"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" s="16"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="21">
-        <v>5</v>
-      </c>
-      <c r="K15" s="4">
-        <v>71000</v>
-      </c>
-      <c r="L15" s="4">
-        <v>355000</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>330</v>
-      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="4"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>76900</v>
-      </c>
-      <c r="R15" s="4">
-        <v>384500</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>331</v>
-      </c>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="15"/>
       <c r="T15" s="4"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="21">
-        <v>5</v>
-      </c>
-      <c r="W15" s="4">
-        <v>79000</v>
-      </c>
-      <c r="X15" s="4">
-        <v>395000</v>
-      </c>
-      <c r="Y15" s="15" t="s">
-        <v>332</v>
-      </c>
+      <c r="V15" s="21"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="15"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="21"/>
@@ -8906,24 +7879,8 @@
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
       <c r="AS15" s="5"/>
-      <c r="AT15">
-        <f t="shared" si="0"/>
-        <v>1634500</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:49">
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16" s="19" t="s">
         <v>85</v>
       </c>
@@ -8933,45 +7890,21 @@
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="21">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>66000</v>
-      </c>
-      <c r="F16">
-        <v>990000</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="D16" s="21"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" s="16"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="21">
-        <v>5</v>
-      </c>
-      <c r="K16" s="4">
-        <v>80000</v>
-      </c>
-      <c r="L16" s="4">
-        <v>400000</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>333</v>
-      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="4"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>85000</v>
-      </c>
-      <c r="R16" s="4">
-        <v>425000</v>
-      </c>
-      <c r="S16" s="15" t="s">
-        <v>334</v>
-      </c>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="15"/>
       <c r="T16" s="4"/>
       <c r="U16" s="5"/>
       <c r="V16" s="21"/>
@@ -8998,24 +7931,8 @@
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
       <c r="AS16" s="5"/>
-      <c r="AT16">
-        <f t="shared" si="0"/>
-        <v>1815000</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="AV16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:49">
+    </row>
+    <row r="17" spans="1:45">
       <c r="A17" s="19" t="s">
         <v>90</v>
       </c>
@@ -9025,60 +7942,27 @@
       <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="21">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>66000</v>
-      </c>
-      <c r="F17">
-        <v>660000</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="D17" s="21"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" s="16"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="21">
-        <v>5</v>
-      </c>
-      <c r="K17" s="4">
-        <v>60000</v>
-      </c>
-      <c r="L17" s="4">
-        <v>300000</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>335</v>
-      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="4"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>78000</v>
-      </c>
-      <c r="R17" s="4">
-        <v>390000</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>336</v>
-      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="15"/>
       <c r="T17" s="4"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="21">
-        <v>5</v>
-      </c>
-      <c r="W17" s="4">
-        <v>75000</v>
-      </c>
-      <c r="X17" s="4">
-        <f>W17*V17</f>
-        <v>375000</v>
-      </c>
-      <c r="Y17" s="15" t="s">
-        <v>337</v>
-      </c>
+      <c r="V17" s="21"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="15"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="21"/>
@@ -9099,24 +7983,8 @@
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
       <c r="AS17" s="5"/>
-      <c r="AT17">
-        <f t="shared" si="0"/>
-        <v>1725000</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="AV17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:49">
+    </row>
+    <row r="18" spans="1:45">
       <c r="A18" s="19" t="s">
         <v>96</v>
       </c>
@@ -9126,45 +7994,21 @@
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="21">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>52000</v>
-      </c>
-      <c r="F18">
-        <v>260000</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>338</v>
-      </c>
+      <c r="D18" s="21"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" s="16"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="21">
-        <v>5</v>
-      </c>
-      <c r="K18" s="4">
-        <v>90000</v>
-      </c>
-      <c r="L18" s="4">
-        <v>450000</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>339</v>
-      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="4"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>90000</v>
-      </c>
-      <c r="R18" s="4">
-        <v>450000</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>340</v>
-      </c>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="15"/>
       <c r="T18" s="4"/>
       <c r="U18" s="5"/>
       <c r="V18" s="21"/>
@@ -9191,24 +8035,8 @@
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
       <c r="AS18" s="5"/>
-      <c r="AT18">
-        <f t="shared" si="0"/>
-        <v>1160000</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AV18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:49">
+    </row>
+    <row r="19" spans="1:45">
       <c r="A19" s="19" t="s">
         <v>102</v>
       </c>
@@ -9218,59 +8046,27 @@
       <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="21">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>7.8</v>
-      </c>
-      <c r="F19">
-        <v>39</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>341</v>
-      </c>
+      <c r="D19" s="21"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" s="16"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="21">
-        <v>5</v>
-      </c>
-      <c r="K19" s="4">
-        <v>67000</v>
-      </c>
-      <c r="L19" s="4">
-        <v>335000</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>342</v>
-      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="4"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>73000</v>
-      </c>
-      <c r="R19" s="4">
-        <v>365000</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>343</v>
-      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="15"/>
       <c r="T19" s="4"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="21">
-        <v>5</v>
-      </c>
-      <c r="W19" s="4">
-        <v>73000</v>
-      </c>
-      <c r="X19" s="4">
-        <v>365000</v>
-      </c>
-      <c r="Y19" s="15" t="s">
-        <v>344</v>
-      </c>
+      <c r="V19" s="21"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="15"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="21"/>
@@ -9291,24 +8087,8 @@
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4"/>
       <c r="AS19" s="5"/>
-      <c r="AT19">
-        <f t="shared" si="0"/>
-        <v>1065039</v>
-      </c>
-      <c r="AU19">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:49">
+    </row>
+    <row r="20" spans="1:45">
       <c r="A20" s="19" t="s">
         <v>107</v>
       </c>
@@ -9318,59 +8098,27 @@
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="21">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>71000</v>
-      </c>
-      <c r="F20">
-        <v>710000</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>345</v>
-      </c>
+      <c r="D20" s="21"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" s="16"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="21">
-        <v>5</v>
-      </c>
-      <c r="K20" s="4">
-        <v>75000</v>
-      </c>
-      <c r="L20" s="4">
-        <v>375000</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>346</v>
-      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="4"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>78000</v>
-      </c>
-      <c r="R20" s="4">
-        <v>390000</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>347</v>
-      </c>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="15"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="21">
-        <v>5</v>
-      </c>
-      <c r="W20" s="4">
-        <v>79000</v>
-      </c>
-      <c r="X20" s="4">
-        <v>395000</v>
-      </c>
-      <c r="Y20" s="15" t="s">
-        <v>348</v>
-      </c>
+      <c r="V20" s="21"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="15"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="21"/>
@@ -9391,24 +8139,8 @@
       <c r="AQ20" s="4"/>
       <c r="AR20" s="4"/>
       <c r="AS20" s="5"/>
-      <c r="AT20">
-        <f t="shared" si="0"/>
-        <v>1870000</v>
-      </c>
-      <c r="AU20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="AV20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:49">
+    </row>
+    <row r="21" spans="1:45">
       <c r="A21" s="19" t="s">
         <v>112</v>
       </c>
@@ -9418,59 +8150,27 @@
       <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>84000</v>
-      </c>
-      <c r="F21">
-        <v>420000</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>349</v>
-      </c>
+      <c r="D21" s="21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21" s="16"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="21">
-        <v>5</v>
-      </c>
-      <c r="K21" s="4">
-        <v>68000</v>
-      </c>
-      <c r="L21" s="4">
-        <v>340000</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>350</v>
-      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="4"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>73000</v>
-      </c>
-      <c r="R21" s="4">
-        <v>365000</v>
-      </c>
-      <c r="S21" s="15" t="s">
-        <v>351</v>
-      </c>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="15"/>
       <c r="T21" s="4"/>
       <c r="U21" s="5"/>
-      <c r="V21" s="21">
-        <v>5</v>
-      </c>
-      <c r="W21" s="4">
-        <v>74000</v>
-      </c>
-      <c r="X21" s="4">
-        <v>370000</v>
-      </c>
-      <c r="Y21" s="15" t="s">
-        <v>352</v>
-      </c>
+      <c r="V21" s="21"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="15"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="21"/>
@@ -9491,24 +8191,8 @@
       <c r="AQ21" s="4"/>
       <c r="AR21" s="4"/>
       <c r="AS21" s="5"/>
-      <c r="AT21">
-        <f t="shared" si="0"/>
-        <v>1495000</v>
-      </c>
-      <c r="AU21">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:49">
+    </row>
+    <row r="22" spans="1:45">
       <c r="A22" s="19" t="s">
         <v>117</v>
       </c>
@@ -9518,59 +8202,27 @@
       <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="21">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>108000</v>
-      </c>
-      <c r="F22">
-        <v>540000</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>353</v>
-      </c>
+      <c r="D22" s="21"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" s="16"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="21">
-        <v>5</v>
-      </c>
-      <c r="K22" s="4">
-        <v>69000</v>
-      </c>
-      <c r="L22" s="4">
-        <v>345000</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>354</v>
-      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="4"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>71000</v>
-      </c>
-      <c r="R22" s="4">
-        <v>355000</v>
-      </c>
-      <c r="S22" s="15" t="s">
-        <v>355</v>
-      </c>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="15"/>
       <c r="T22" s="4"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="21">
-        <v>5</v>
-      </c>
-      <c r="W22" s="4">
-        <v>69000</v>
-      </c>
-      <c r="X22" s="4">
-        <v>345000</v>
-      </c>
-      <c r="Y22" s="15" t="s">
-        <v>356</v>
-      </c>
+      <c r="V22" s="21"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="15"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="21"/>
@@ -9591,24 +8243,8 @@
       <c r="AQ22" s="4"/>
       <c r="AR22" s="4"/>
       <c r="AS22" s="5"/>
-      <c r="AT22">
-        <f t="shared" si="0"/>
-        <v>1585000</v>
-      </c>
-      <c r="AU22">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:49">
+    </row>
+    <row r="23" spans="1:45">
       <c r="A23" s="19" t="s">
         <v>122</v>
       </c>
@@ -9618,59 +8254,27 @@
       <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="D23" s="21">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>48000</v>
-      </c>
-      <c r="F23">
-        <v>240000</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>357</v>
-      </c>
+      <c r="D23" s="21"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" s="16"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="21">
-        <v>5</v>
-      </c>
-      <c r="K23" s="4">
-        <v>70000</v>
-      </c>
-      <c r="L23" s="4">
-        <v>350000</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>358</v>
-      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="4"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>76000</v>
-      </c>
-      <c r="R23" s="4">
-        <v>380000</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>359</v>
-      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="15"/>
       <c r="T23" s="4"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="21">
-        <v>5</v>
-      </c>
-      <c r="W23" s="4">
-        <v>73000</v>
-      </c>
-      <c r="X23" s="4">
-        <v>365000</v>
-      </c>
-      <c r="Y23" s="15" t="s">
-        <v>360</v>
-      </c>
+      <c r="V23" s="21"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="15"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="21"/>
@@ -9691,24 +8295,8 @@
       <c r="AQ23" s="4"/>
       <c r="AR23" s="4"/>
       <c r="AS23" s="5"/>
-      <c r="AT23">
-        <f t="shared" si="0"/>
-        <v>1335000</v>
-      </c>
-      <c r="AU23">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AV23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:49">
+    </row>
+    <row r="24" spans="1:45">
       <c r="A24" s="19" t="s">
         <v>127</v>
       </c>
@@ -9718,45 +8306,21 @@
       <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="21">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>62000</v>
-      </c>
-      <c r="F24">
-        <v>310000</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>361</v>
-      </c>
+      <c r="D24" s="21"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" s="16"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="21">
-        <v>5</v>
-      </c>
-      <c r="K24" s="4">
-        <v>65000</v>
-      </c>
-      <c r="L24" s="4">
-        <v>325000</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="4"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>62000</v>
-      </c>
-      <c r="R24" s="4">
-        <v>310000</v>
-      </c>
-      <c r="S24" s="15" t="s">
-        <v>363</v>
-      </c>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="15"/>
       <c r="T24" s="4"/>
       <c r="U24" s="5"/>
       <c r="V24" s="21"/>
@@ -9780,27 +8344,11 @@
       <c r="AN24" s="21"/>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
+      <c r="AQ24" s="22"/>
       <c r="AR24" s="4"/>
       <c r="AS24" s="5"/>
-      <c r="AT24">
-        <f t="shared" si="0"/>
-        <v>945000</v>
-      </c>
-      <c r="AU24">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AV24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:47">
+    </row>
+    <row r="25" spans="1:45">
       <c r="A25" s="19" t="s">
         <v>132</v>
       </c>
@@ -9810,45 +8358,21 @@
       <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="21">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>79000</v>
-      </c>
-      <c r="F25">
-        <v>790000</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>134</v>
-      </c>
+      <c r="D25" s="21"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25" s="16"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="21">
-        <v>5</v>
-      </c>
-      <c r="K25" s="4">
-        <v>83000</v>
-      </c>
-      <c r="L25" s="4">
-        <v>415000</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>364</v>
-      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="4"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>83000</v>
-      </c>
-      <c r="R25" s="4">
-        <v>415000</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>365</v>
-      </c>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="15"/>
       <c r="T25" s="4"/>
       <c r="U25" s="5"/>
       <c r="V25" s="21"/>
@@ -9872,19 +8396,11 @@
       <c r="AN25" s="21"/>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
+      <c r="AQ25" s="22"/>
       <c r="AR25" s="4"/>
       <c r="AS25" s="5"/>
-      <c r="AT25">
-        <f t="shared" si="0"/>
-        <v>1620000</v>
-      </c>
-      <c r="AU25">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47">
+    </row>
+    <row r="26" spans="1:45">
       <c r="A26" s="19" t="s">
         <v>138</v>
       </c>
@@ -9894,31 +8410,15 @@
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="21">
-        <v>15</v>
-      </c>
-      <c r="E26">
-        <v>90000</v>
-      </c>
-      <c r="F26">
-        <v>1350000</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>140</v>
-      </c>
+      <c r="D26" s="21"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" s="16"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="21">
-        <v>15</v>
-      </c>
-      <c r="K26" s="4">
-        <v>92000</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1380000</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>366</v>
-      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="4"/>
       <c r="O26" s="5"/>
       <c r="P26" s="21"/>
@@ -9951,16 +8451,8 @@
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
       <c r="AS26" s="5"/>
-      <c r="AT26">
-        <f t="shared" si="0"/>
-        <v>2730000</v>
-      </c>
-      <c r="AU26">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47">
+    </row>
+    <row r="27" spans="1:45">
       <c r="A27" s="19" t="s">
         <v>142</v>
       </c>
@@ -9970,59 +8462,27 @@
       <c r="C27" s="5">
         <v>1</v>
       </c>
-      <c r="D27" s="21">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>46000</v>
-      </c>
-      <c r="F27">
-        <v>230000</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>367</v>
-      </c>
+      <c r="D27" s="21"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="16"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="21">
-        <v>5</v>
-      </c>
-      <c r="K27" s="4">
-        <v>66000</v>
-      </c>
-      <c r="L27" s="4">
-        <v>330000</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>368</v>
-      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="15"/>
       <c r="N27" s="4"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>66000</v>
-      </c>
-      <c r="R27" s="4">
-        <v>330000</v>
-      </c>
-      <c r="S27" s="15" t="s">
-        <v>369</v>
-      </c>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="15"/>
       <c r="T27" s="4"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="21">
-        <v>5</v>
-      </c>
-      <c r="W27" s="4">
-        <v>67000</v>
-      </c>
-      <c r="X27" s="4">
-        <v>335000</v>
-      </c>
-      <c r="Y27" s="15" t="s">
-        <v>370</v>
-      </c>
+      <c r="V27" s="21"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="15"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="21"/>
@@ -10043,16 +8503,8 @@
       <c r="AQ27" s="4"/>
       <c r="AR27" s="4"/>
       <c r="AS27" s="5"/>
-      <c r="AT27">
-        <f t="shared" si="0"/>
-        <v>1225000</v>
-      </c>
-      <c r="AU27">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:47">
+    </row>
+    <row r="28" spans="1:45">
       <c r="A28" s="19" t="s">
         <v>147</v>
       </c>
@@ -10062,59 +8514,27 @@
       <c r="C28" s="5">
         <v>1</v>
       </c>
-      <c r="D28" s="21">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>80000</v>
-      </c>
-      <c r="F28">
-        <v>400000</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>371</v>
-      </c>
+      <c r="D28" s="21"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="16"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="21">
-        <v>5</v>
-      </c>
-      <c r="K28" s="4">
-        <v>80000</v>
-      </c>
-      <c r="L28" s="4">
-        <v>400000</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>372</v>
-      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="4"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>85000</v>
-      </c>
-      <c r="R28" s="4">
-        <v>425000</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>373</v>
-      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="15"/>
       <c r="T28" s="4"/>
       <c r="U28" s="5"/>
-      <c r="V28" s="21">
-        <v>5</v>
-      </c>
-      <c r="W28" s="4">
-        <v>80000</v>
-      </c>
-      <c r="X28" s="4">
-        <v>400000</v>
-      </c>
-      <c r="Y28" s="15" t="s">
-        <v>374</v>
-      </c>
+      <c r="V28" s="21"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="15"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="21"/>
@@ -10135,16 +8555,8 @@
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
       <c r="AS28" s="5"/>
-      <c r="AT28">
-        <f t="shared" si="0"/>
-        <v>1625000</v>
-      </c>
-      <c r="AU28">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:47">
+    </row>
+    <row r="29" spans="1:45">
       <c r="A29" s="19" t="s">
         <v>152</v>
       </c>
@@ -10156,32 +8568,16 @@
       </c>
       <c r="D29" s="21"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="21">
-        <v>15</v>
-      </c>
-      <c r="K29" s="4">
-        <v>59000</v>
-      </c>
-      <c r="L29" s="4">
-        <v>885000</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>375</v>
-      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="4"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>59000</v>
-      </c>
-      <c r="R29" s="4">
-        <v>295000</v>
-      </c>
-      <c r="S29" s="15" t="s">
-        <v>376</v>
-      </c>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="15"/>
       <c r="T29" s="4"/>
       <c r="U29" s="5"/>
       <c r="V29" s="21"/>
@@ -10208,16 +8604,8 @@
       <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
       <c r="AS29" s="5"/>
-      <c r="AT29">
-        <f t="shared" si="0"/>
-        <v>1180000</v>
-      </c>
-      <c r="AU29">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:47">
+    </row>
+    <row r="30" spans="1:45">
       <c r="A30" s="19" t="s">
         <v>155</v>
       </c>
@@ -10227,59 +8615,27 @@
       <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="D30" s="21">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>91000</v>
-      </c>
-      <c r="F30">
-        <v>455000</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>377</v>
-      </c>
+      <c r="D30" s="21"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" s="16"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="21">
-        <v>5</v>
-      </c>
-      <c r="K30" s="4">
-        <v>89000</v>
-      </c>
-      <c r="L30" s="4">
-        <v>445000</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>378</v>
-      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="4"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>89000</v>
-      </c>
-      <c r="R30" s="4">
-        <v>445000</v>
-      </c>
-      <c r="S30" s="15" t="s">
-        <v>379</v>
-      </c>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="15"/>
       <c r="T30" s="4"/>
       <c r="U30" s="5"/>
-      <c r="V30" s="21">
-        <v>5</v>
-      </c>
-      <c r="W30" s="4">
-        <v>93000</v>
-      </c>
-      <c r="X30" s="4">
-        <v>465000</v>
-      </c>
-      <c r="Y30" s="15" t="s">
-        <v>380</v>
-      </c>
+      <c r="V30" s="21"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="15"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="21"/>
@@ -10300,16 +8656,8 @@
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
       <c r="AS30" s="5"/>
-      <c r="AT30">
-        <f t="shared" si="0"/>
-        <v>1810000</v>
-      </c>
-      <c r="AU30">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:47">
+    </row>
+    <row r="31" spans="1:45">
       <c r="A31" s="19" t="s">
         <v>160</v>
       </c>
@@ -10319,57 +8667,26 @@
       <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="21">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>54000</v>
-      </c>
-      <c r="F31">
-        <v>270000</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>381</v>
-      </c>
+      <c r="D31" s="21"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" s="16"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="21">
-        <v>5</v>
-      </c>
-      <c r="K31" s="4">
-        <v>73000</v>
-      </c>
-      <c r="L31" s="4">
-        <v>365000</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>382</v>
-      </c>
+      <c r="J31" s="21"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="15"/>
       <c r="N31" s="4"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>76000</v>
-      </c>
-      <c r="R31" s="4">
-        <v>380000</v>
-      </c>
-      <c r="S31" s="15" t="s">
-        <v>383</v>
-      </c>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="15"/>
       <c r="T31" s="4"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="21">
-        <v>5</v>
-      </c>
-      <c r="W31" s="4">
-        <v>78000</v>
-      </c>
-      <c r="X31" s="4">
-        <f>W31*V31</f>
-        <v>390000</v>
-      </c>
+      <c r="V31" s="21"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="5"/>
@@ -10391,16 +8708,8 @@
       <c r="AQ31" s="4"/>
       <c r="AR31" s="4"/>
       <c r="AS31" s="5"/>
-      <c r="AT31">
-        <f t="shared" si="0"/>
-        <v>1405000</v>
-      </c>
-      <c r="AU31">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:47">
+    </row>
+    <row r="32" spans="1:45">
       <c r="A32" s="19" t="s">
         <v>165</v>
       </c>
@@ -10410,59 +8719,27 @@
       <c r="C32" s="5">
         <v>1</v>
       </c>
-      <c r="D32" s="21">
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <v>90000</v>
-      </c>
-      <c r="F32">
-        <v>450000</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>384</v>
-      </c>
+      <c r="D32" s="21"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="16"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="21">
-        <v>5</v>
-      </c>
-      <c r="K32" s="4">
-        <v>74000</v>
-      </c>
-      <c r="L32" s="4">
-        <v>370000</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>385</v>
-      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="4"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>68000</v>
-      </c>
-      <c r="R32" s="4">
-        <v>340000</v>
-      </c>
-      <c r="S32" s="15" t="s">
-        <v>386</v>
-      </c>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="15"/>
       <c r="T32" s="4"/>
       <c r="U32" s="5"/>
-      <c r="V32" s="21">
-        <v>5</v>
-      </c>
-      <c r="W32" s="4">
-        <v>80000</v>
-      </c>
-      <c r="X32" s="4">
-        <v>400000</v>
-      </c>
-      <c r="Y32" s="15" t="s">
-        <v>387</v>
-      </c>
+      <c r="V32" s="21"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="15"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="21"/>
@@ -10483,16 +8760,8 @@
       <c r="AQ32" s="4"/>
       <c r="AR32" s="4"/>
       <c r="AS32" s="5"/>
-      <c r="AT32">
-        <f t="shared" si="0"/>
-        <v>1560000</v>
-      </c>
-      <c r="AU32">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:47">
+    </row>
+    <row r="33" spans="1:45">
       <c r="A33" s="19" t="s">
         <v>170</v>
       </c>
@@ -10502,59 +8771,27 @@
       <c r="C33" s="5">
         <v>1</v>
       </c>
-      <c r="D33" s="21">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>48000</v>
-      </c>
-      <c r="F33">
-        <v>480000</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>172</v>
-      </c>
+      <c r="D33" s="21"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="16"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="21">
-        <v>10</v>
-      </c>
-      <c r="K33" s="4">
-        <v>89000</v>
-      </c>
-      <c r="L33" s="4">
-        <v>890000</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>388</v>
-      </c>
+      <c r="J33" s="21"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="4"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>54000</v>
-      </c>
-      <c r="R33" s="4">
-        <v>540000</v>
-      </c>
-      <c r="S33" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="15"/>
       <c r="T33" s="4"/>
       <c r="U33" s="5"/>
-      <c r="V33" s="21">
-        <v>5</v>
-      </c>
-      <c r="W33" s="4">
-        <v>72000</v>
-      </c>
-      <c r="X33" s="4">
-        <v>360000</v>
-      </c>
-      <c r="Y33" s="15" t="s">
-        <v>389</v>
-      </c>
+      <c r="V33" s="21"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="15"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="21"/>
@@ -10575,16 +8812,8 @@
       <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
       <c r="AS33" s="5"/>
-      <c r="AT33">
-        <f t="shared" si="0"/>
-        <v>2270000</v>
-      </c>
-      <c r="AU33">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:47">
+    </row>
+    <row r="34" spans="1:45">
       <c r="A34" s="19" t="s">
         <v>175</v>
       </c>
@@ -10594,59 +8823,27 @@
       <c r="C34" s="5">
         <v>1</v>
       </c>
-      <c r="D34" s="21">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>83000</v>
-      </c>
-      <c r="F34">
-        <v>913000</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>177</v>
-      </c>
+      <c r="D34" s="21"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" s="16"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="21">
-        <v>5</v>
-      </c>
-      <c r="K34" s="4">
-        <v>76000</v>
-      </c>
-      <c r="L34" s="4">
-        <v>380000</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>390</v>
-      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="4"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="21">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>105000</v>
-      </c>
-      <c r="R34" s="4">
-        <v>1155000</v>
-      </c>
-      <c r="S34" s="15" t="s">
-        <v>179</v>
-      </c>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="15"/>
       <c r="T34" s="4"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="21">
-        <v>5</v>
-      </c>
-      <c r="W34" s="4">
-        <v>80000</v>
-      </c>
-      <c r="X34" s="4">
-        <v>400000</v>
-      </c>
-      <c r="Y34" s="15" t="s">
-        <v>391</v>
-      </c>
+      <c r="V34" s="21"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="15"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="21"/>
@@ -10667,16 +8864,8 @@
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
       <c r="AS34" s="5"/>
-      <c r="AT34">
-        <f t="shared" si="0"/>
-        <v>2848000</v>
-      </c>
-      <c r="AU34">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:47">
+    </row>
+    <row r="35" spans="1:45">
       <c r="A35" s="19" t="s">
         <v>180</v>
       </c>
@@ -10686,59 +8875,27 @@
       <c r="C35" s="5">
         <v>1</v>
       </c>
-      <c r="D35" s="21">
-        <v>7</v>
-      </c>
-      <c r="E35">
-        <v>109000</v>
-      </c>
-      <c r="F35">
-        <v>763000</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>392</v>
-      </c>
+      <c r="D35" s="21"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35" s="16"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="21">
-        <v>7</v>
-      </c>
-      <c r="K35" s="4">
-        <v>100000</v>
-      </c>
-      <c r="L35" s="4">
-        <v>700000</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>393</v>
-      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="15"/>
       <c r="N35" s="4"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="21">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>70000</v>
-      </c>
-      <c r="R35" s="4">
-        <v>490000</v>
-      </c>
-      <c r="S35" s="15" t="s">
-        <v>394</v>
-      </c>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="15"/>
       <c r="T35" s="4"/>
       <c r="U35" s="5"/>
-      <c r="V35" s="21">
-        <v>5</v>
-      </c>
-      <c r="W35" s="4">
-        <v>80000</v>
-      </c>
-      <c r="X35" s="4">
-        <v>400000</v>
-      </c>
-      <c r="Y35" s="15" t="s">
-        <v>395</v>
-      </c>
+      <c r="V35" s="21"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="15"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="21"/>
@@ -10759,16 +8916,8 @@
       <c r="AQ35" s="4"/>
       <c r="AR35" s="4"/>
       <c r="AS35" s="5"/>
-      <c r="AT35">
-        <f t="shared" si="0"/>
-        <v>2353000</v>
-      </c>
-      <c r="AU35">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:47">
+    </row>
+    <row r="36" spans="1:45">
       <c r="A36" s="19" t="s">
         <v>183</v>
       </c>
@@ -10778,59 +8927,27 @@
       <c r="C36" s="5">
         <v>1</v>
       </c>
-      <c r="D36" s="21">
-        <v>5</v>
-      </c>
-      <c r="E36">
-        <v>87110</v>
-      </c>
-      <c r="F36">
-        <v>435550</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>396</v>
-      </c>
+      <c r="D36" s="21"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36" s="16"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="21">
-        <v>5</v>
-      </c>
-      <c r="K36" s="4">
-        <v>79446</v>
-      </c>
-      <c r="L36" s="4">
-        <v>397230</v>
-      </c>
-      <c r="M36" s="15" t="s">
-        <v>397</v>
-      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="15"/>
       <c r="N36" s="4"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>87100</v>
-      </c>
-      <c r="R36" s="4">
-        <v>435500</v>
-      </c>
-      <c r="S36" s="15" t="s">
-        <v>398</v>
-      </c>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="15"/>
       <c r="T36" s="4"/>
       <c r="U36" s="5"/>
-      <c r="V36" s="21">
-        <v>5</v>
-      </c>
-      <c r="W36" s="4">
-        <v>82880</v>
-      </c>
-      <c r="X36" s="4">
-        <v>414400</v>
-      </c>
-      <c r="Y36" s="15" t="s">
-        <v>399</v>
-      </c>
+      <c r="V36" s="21"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="15"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="21"/>
@@ -10851,16 +8968,8 @@
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
       <c r="AS36" s="5"/>
-      <c r="AT36">
-        <f t="shared" si="0"/>
-        <v>1682680</v>
-      </c>
-      <c r="AU36">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:47">
+    </row>
+    <row r="37" spans="1:45">
       <c r="A37" s="19" t="s">
         <v>187</v>
       </c>
@@ -10870,59 +8979,27 @@
       <c r="C37" s="5">
         <v>1</v>
       </c>
-      <c r="D37" s="21">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>46000</v>
-      </c>
-      <c r="F37">
-        <v>460000</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>189</v>
-      </c>
+      <c r="D37" s="21"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37" s="16"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="21">
-        <v>5</v>
-      </c>
-      <c r="K37" s="4">
-        <v>73000</v>
-      </c>
-      <c r="L37" s="4">
-        <v>365000</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>400</v>
-      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="15"/>
       <c r="N37" s="4"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>75000</v>
-      </c>
-      <c r="R37" s="4">
-        <v>375000</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>401</v>
-      </c>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="15"/>
       <c r="T37" s="4"/>
       <c r="U37" s="5"/>
-      <c r="V37" s="21">
-        <v>5</v>
-      </c>
-      <c r="W37" s="4">
-        <v>77000</v>
-      </c>
-      <c r="X37" s="4">
-        <v>385000</v>
-      </c>
-      <c r="Y37" s="15" t="s">
-        <v>402</v>
-      </c>
+      <c r="V37" s="21"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="15"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="21"/>
@@ -10943,16 +9020,8 @@
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
       <c r="AS37" s="5"/>
-      <c r="AT37">
-        <f t="shared" si="0"/>
-        <v>1585000</v>
-      </c>
-      <c r="AU37">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:47">
+    </row>
+    <row r="38" spans="1:45">
       <c r="A38" s="19" t="s">
         <v>192</v>
       </c>
@@ -10962,45 +9031,21 @@
       <c r="C38" s="5">
         <v>1</v>
       </c>
-      <c r="D38" s="21">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>35000</v>
-      </c>
-      <c r="F38">
-        <v>350000</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>194</v>
-      </c>
+      <c r="D38" s="21"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38" s="16"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="21">
-        <v>6</v>
-      </c>
-      <c r="K38" s="4">
-        <v>72000</v>
-      </c>
-      <c r="L38" s="4">
-        <v>432000</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>403</v>
-      </c>
+      <c r="J38" s="21"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="15"/>
       <c r="N38" s="4"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>72000</v>
-      </c>
-      <c r="R38" s="4">
-        <v>360000</v>
-      </c>
-      <c r="S38" s="15" t="s">
-        <v>404</v>
-      </c>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="15"/>
       <c r="T38" s="4"/>
       <c r="U38" s="5"/>
       <c r="V38" s="21"/>
@@ -11027,16 +9072,8 @@
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
       <c r="AS38" s="5"/>
-      <c r="AT38">
-        <f t="shared" si="0"/>
-        <v>1142000</v>
-      </c>
-      <c r="AU38">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:47">
+    </row>
+    <row r="39" spans="1:45">
       <c r="A39" s="19" t="s">
         <v>196</v>
       </c>
@@ -11046,31 +9083,15 @@
       <c r="C39" s="5">
         <v>1</v>
       </c>
-      <c r="D39" s="21">
-        <v>10</v>
-      </c>
-      <c r="E39">
-        <v>47000</v>
-      </c>
-      <c r="F39">
-        <v>470000</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>198</v>
-      </c>
+      <c r="D39" s="21"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39" s="16"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="21">
-        <v>10</v>
-      </c>
-      <c r="K39" s="4">
-        <v>51000</v>
-      </c>
-      <c r="L39" s="4">
-        <v>510000</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>199</v>
-      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39"/>
+      <c r="M39" s="15"/>
       <c r="N39" s="4"/>
       <c r="O39" s="5"/>
       <c r="P39" s="21"/>
@@ -11103,16 +9124,8 @@
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
       <c r="AS39" s="5"/>
-      <c r="AT39">
-        <f t="shared" si="0"/>
-        <v>980000</v>
-      </c>
-      <c r="AU39">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:47">
+    </row>
+    <row r="40" spans="1:45">
       <c r="A40" s="19" t="s">
         <v>201</v>
       </c>
@@ -11122,45 +9135,20 @@
       <c r="C40" s="5">
         <v>1</v>
       </c>
-      <c r="D40" s="21">
-        <v>10</v>
-      </c>
-      <c r="E40">
-        <v>32000</v>
-      </c>
-      <c r="F40">
-        <v>320000</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>203</v>
-      </c>
+      <c r="D40" s="21"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40" s="16"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="21">
-        <v>10</v>
-      </c>
-      <c r="K40" s="4">
-        <v>32000</v>
-      </c>
-      <c r="L40" s="4">
-        <v>320000</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>204</v>
-      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="M40" s="15"/>
       <c r="N40" s="4"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>38000</v>
-      </c>
-      <c r="R40" s="4">
-        <v>380000</v>
-      </c>
-      <c r="S40" s="15" t="s">
-        <v>205</v>
-      </c>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="15"/>
       <c r="T40" s="4"/>
       <c r="U40" s="5"/>
       <c r="V40" s="21"/>
@@ -11187,16 +9175,8 @@
       <c r="AQ40" s="4"/>
       <c r="AR40" s="4"/>
       <c r="AS40" s="5"/>
-      <c r="AT40">
-        <f t="shared" si="0"/>
-        <v>1020000</v>
-      </c>
-      <c r="AU40">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:47">
+    </row>
+    <row r="41" spans="1:45">
       <c r="A41" s="19" t="s">
         <v>206</v>
       </c>
@@ -11206,45 +9186,20 @@
       <c r="C41" s="5">
         <v>1</v>
       </c>
-      <c r="D41" s="21">
-        <v>10</v>
-      </c>
-      <c r="E41">
-        <v>45000</v>
-      </c>
-      <c r="F41">
-        <v>450000</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>208</v>
-      </c>
+      <c r="D41" s="21"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41" s="16"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="21">
-        <v>10</v>
-      </c>
-      <c r="K41" s="4">
-        <v>45000</v>
-      </c>
-      <c r="L41" s="4">
-        <v>450000</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>209</v>
-      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="M41" s="15"/>
       <c r="N41" s="4"/>
       <c r="O41" s="5"/>
-      <c r="P41" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>45000</v>
-      </c>
-      <c r="R41" s="4">
-        <v>450000</v>
-      </c>
-      <c r="S41" s="15" t="s">
-        <v>210</v>
-      </c>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="15"/>
       <c r="T41" s="4"/>
       <c r="U41" s="5"/>
       <c r="V41" s="21"/>
@@ -11271,16 +9226,8 @@
       <c r="AQ41" s="4"/>
       <c r="AR41" s="4"/>
       <c r="AS41" s="5"/>
-      <c r="AT41">
-        <f t="shared" si="0"/>
-        <v>1350000</v>
-      </c>
-      <c r="AU41">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:47">
+    </row>
+    <row r="42" spans="1:45">
       <c r="A42" s="19" t="s">
         <v>211</v>
       </c>
@@ -11290,51 +9237,26 @@
       <c r="C42" s="5">
         <v>1</v>
       </c>
-      <c r="D42" s="21">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>40244</v>
-      </c>
-      <c r="F42">
-        <v>402440</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>213</v>
-      </c>
+      <c r="D42" s="21"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42" s="16"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="21"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
       <c r="M42" s="15"/>
       <c r="N42" s="4"/>
       <c r="O42" s="5"/>
-      <c r="P42" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>849957</v>
-      </c>
-      <c r="R42" s="4">
-        <v>4249785</v>
-      </c>
-      <c r="S42" s="15" t="s">
-        <v>405</v>
-      </c>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="15"/>
       <c r="T42" s="4"/>
       <c r="U42" s="5"/>
-      <c r="V42" s="21">
-        <v>15</v>
-      </c>
-      <c r="W42" s="4">
-        <v>1340042</v>
-      </c>
-      <c r="X42" s="4">
-        <v>20100630</v>
-      </c>
-      <c r="Y42" s="15" t="s">
-        <v>406</v>
-      </c>
+      <c r="V42" s="21"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="15"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="21"/>
@@ -11355,16 +9277,8 @@
       <c r="AQ42" s="4"/>
       <c r="AR42" s="4"/>
       <c r="AS42" s="5"/>
-      <c r="AT42">
-        <f t="shared" si="0"/>
-        <v>24752855</v>
-      </c>
-      <c r="AU42">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:47">
+    </row>
+    <row r="43" spans="1:45">
       <c r="A43" s="19" t="s">
         <v>222</v>
       </c>
@@ -11374,59 +9288,26 @@
       <c r="C43" s="5">
         <v>1</v>
       </c>
-      <c r="D43" s="21">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>104000</v>
-      </c>
-      <c r="F43">
-        <v>520000</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>407</v>
-      </c>
+      <c r="D43" s="21"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43" s="16"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="21">
-        <v>10</v>
-      </c>
-      <c r="K43" s="4">
-        <v>68000</v>
-      </c>
-      <c r="L43" s="4">
-        <v>680000</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>408</v>
-      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="M43" s="15"/>
       <c r="N43" s="4"/>
       <c r="O43" s="5"/>
-      <c r="P43" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>70000</v>
-      </c>
-      <c r="R43" s="4">
-        <v>350000</v>
-      </c>
-      <c r="S43" s="15" t="s">
-        <v>409</v>
-      </c>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="15"/>
       <c r="T43" s="4"/>
       <c r="U43" s="5"/>
-      <c r="V43" s="21">
-        <v>5</v>
-      </c>
-      <c r="W43" s="4">
-        <v>74000</v>
-      </c>
-      <c r="X43" s="4">
-        <v>370000</v>
-      </c>
-      <c r="Y43" s="15" t="s">
-        <v>410</v>
-      </c>
+      <c r="V43" s="21"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="15"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="21"/>
@@ -11447,16 +9328,8 @@
       <c r="AQ43" s="4"/>
       <c r="AR43" s="4"/>
       <c r="AS43" s="5"/>
-      <c r="AT43">
-        <f>F43+L43+R43+X43+AD43+AJ43+AP43</f>
-        <v>1920000</v>
-      </c>
-      <c r="AU43">
-        <f>D43+J43+P43+V43+AB43+AH43+AN43</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:47">
+    </row>
+    <row r="44" spans="1:45">
       <c r="A44" s="19" t="s">
         <v>225</v>
       </c>
@@ -11466,18 +9339,10 @@
       <c r="C44" s="5">
         <v>1</v>
       </c>
-      <c r="D44" s="21">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>70000</v>
-      </c>
-      <c r="F44">
-        <v>350000</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>411</v>
-      </c>
+      <c r="D44" s="21"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44" s="16"/>
       <c r="I44" s="5"/>
       <c r="J44" s="21"/>
       <c r="K44" s="4"/>
@@ -11515,16 +9380,8 @@
       <c r="AQ44" s="4"/>
       <c r="AR44" s="4"/>
       <c r="AS44" s="5"/>
-      <c r="AT44">
-        <f>F44+L44+R44+X44+AD44+AJ44+AP44</f>
-        <v>350000</v>
-      </c>
-      <c r="AU44">
-        <f>D44+J44+P44+V44+AB44+AH44+AN44</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:47">
+    </row>
+    <row r="45" spans="1:45">
       <c r="A45" s="19" t="s">
         <v>228</v>
       </c>
@@ -11542,24 +9399,16 @@
       <c r="M45" s="15"/>
       <c r="N45" s="4"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="21">
-        <v>15</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>232</v>
-      </c>
+      <c r="S45" s="15"/>
+      <c r="T45"/>
+      <c r="U45" s="5"/>
       <c r="V45" s="21"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="15"/>
-      <c r="Z45"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="21"/>
       <c r="AC45" s="4"/>
@@ -11579,16 +9428,8 @@
       <c r="AQ45" s="4"/>
       <c r="AR45" s="4"/>
       <c r="AS45" s="5"/>
-      <c r="AT45">
-        <f>F45+L45+R45+X45+AD45+AJ45+AP45</f>
-        <v>0</v>
-      </c>
-      <c r="AU45">
-        <f>D45+J45+P45+V45+AB45+AH45+AN45</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:47">
+    </row>
+    <row r="46" spans="1:45">
       <c r="A46" s="19" t="s">
         <v>233</v>
       </c>
@@ -11598,59 +9439,27 @@
       <c r="C46" s="5">
         <v>1</v>
       </c>
-      <c r="D46" s="21">
-        <v>5</v>
-      </c>
-      <c r="E46">
-        <v>69000</v>
-      </c>
-      <c r="F46">
-        <v>345000</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>412</v>
-      </c>
+      <c r="D46" s="21"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46" s="16"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="21">
-        <v>5</v>
-      </c>
-      <c r="K46" s="4">
-        <v>77000</v>
-      </c>
-      <c r="L46" s="4">
-        <v>385000</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>413</v>
-      </c>
+      <c r="J46" s="21"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="15"/>
       <c r="N46" s="4"/>
       <c r="O46" s="5"/>
-      <c r="P46" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>75000</v>
-      </c>
-      <c r="R46" s="4">
-        <v>375000</v>
-      </c>
-      <c r="S46" s="15" t="s">
-        <v>414</v>
-      </c>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="15"/>
       <c r="T46" s="4"/>
       <c r="U46" s="5"/>
-      <c r="V46" s="21">
-        <v>5</v>
-      </c>
-      <c r="W46" s="4">
-        <v>79000</v>
-      </c>
-      <c r="X46" s="4">
-        <v>395000</v>
-      </c>
-      <c r="Y46" s="15" t="s">
-        <v>415</v>
-      </c>
+      <c r="V46" s="21"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="15"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="21"/>
@@ -11671,16 +9480,8 @@
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
       <c r="AS46" s="5"/>
-      <c r="AT46">
-        <f>F46+L46+R46+X46+AD46+AJ46+AP46</f>
-        <v>1500000</v>
-      </c>
-      <c r="AU46">
-        <f>D46+J46+P46+V46+AB46+AH46+AN46</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:47">
+    </row>
+    <row r="47" spans="1:45">
       <c r="A47" s="19" t="s">
         <v>235</v>
       </c>
@@ -11692,29 +9493,15 @@
       </c>
       <c r="D47" s="21"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="21">
-        <v>5</v>
-      </c>
-      <c r="K47" s="4">
-        <v>67000</v>
-      </c>
-      <c r="L47" s="4">
-        <v>335000</v>
-      </c>
-      <c r="M47" s="15" t="s">
-        <v>416</v>
-      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="4"/>
       <c r="O47" s="5"/>
-      <c r="P47" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>61000</v>
-      </c>
-      <c r="R47" s="4">
-        <v>610000</v>
-      </c>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
       <c r="S47" s="15"/>
       <c r="T47" s="4"/>
       <c r="U47" s="5"/>
@@ -11742,16 +9529,8 @@
       <c r="AQ47" s="4"/>
       <c r="AR47" s="4"/>
       <c r="AS47" s="5"/>
-      <c r="AT47">
-        <f>F47+L47+R47+X47+AD47+AJ47+AP47</f>
-        <v>945000</v>
-      </c>
-      <c r="AU47">
-        <f>D47+J47+P47+V47+AB47+AH47+AN47</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:47">
+    </row>
+    <row r="48" spans="1:45">
       <c r="A48" s="19" t="s">
         <v>237</v>
       </c>
@@ -11761,56 +9540,26 @@
       <c r="C48" s="5">
         <v>1</v>
       </c>
-      <c r="D48" s="21">
-        <v>10</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>417</v>
-      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="4"/>
+      <c r="G48" s="16"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="21">
-        <v>7</v>
-      </c>
-      <c r="K48" s="4">
-        <v>97000</v>
-      </c>
-      <c r="L48" s="4">
-        <v>679000</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>418</v>
-      </c>
+      <c r="J48" s="21"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="15"/>
       <c r="N48" s="4"/>
       <c r="O48" s="5"/>
-      <c r="P48" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>97000</v>
-      </c>
-      <c r="R48" s="4">
-        <v>485000</v>
-      </c>
-      <c r="S48" s="15" t="s">
-        <v>419</v>
-      </c>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="15"/>
       <c r="T48" s="4"/>
       <c r="U48" s="5"/>
-      <c r="V48" s="21">
-        <v>5</v>
-      </c>
-      <c r="W48" s="4">
-        <v>97000</v>
-      </c>
-      <c r="X48" s="4">
-        <v>485000</v>
-      </c>
-      <c r="Y48" s="15" t="s">
-        <v>420</v>
-      </c>
+      <c r="V48" s="21"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="15"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="21"/>
@@ -11831,18 +9580,10 @@
       <c r="AQ48" s="4"/>
       <c r="AR48" s="4"/>
       <c r="AS48" s="5"/>
-      <c r="AT48">
-        <f>F48+L48+R48+X48+AD48+AJ48+AP48</f>
-        <v>1649000</v>
-      </c>
-      <c r="AU48">
-        <f>D48+J48+P48+V48+AB48+AH48+AN48</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:47">
+    </row>
+    <row r="49" spans="1:45">
       <c r="A49" s="19" t="s">
-        <v>421</v>
+        <v>287</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>239</v>
@@ -11852,46 +9593,22 @@
       </c>
       <c r="D49" s="21"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="21">
-        <v>5</v>
-      </c>
-      <c r="K49" s="4">
-        <v>90000</v>
-      </c>
-      <c r="L49" s="4">
-        <v>450000</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>422</v>
-      </c>
+      <c r="J49" s="21"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="15"/>
       <c r="N49" s="4"/>
       <c r="O49" s="5"/>
-      <c r="P49" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>92000</v>
-      </c>
-      <c r="R49" s="4">
-        <v>460000</v>
-      </c>
-      <c r="S49" s="15" t="s">
-        <v>423</v>
-      </c>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="15"/>
       <c r="T49" s="4"/>
       <c r="U49" s="5"/>
-      <c r="V49" s="21">
-        <v>5</v>
-      </c>
-      <c r="W49" s="4">
-        <v>97000</v>
-      </c>
-      <c r="X49" s="4">
-        <v>485000</v>
-      </c>
-      <c r="Y49" s="15" t="s">
-        <v>424</v>
-      </c>
+      <c r="V49" s="21"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="15"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="21"/>
@@ -11912,16 +9629,8 @@
       <c r="AQ49" s="4"/>
       <c r="AR49" s="4"/>
       <c r="AS49" s="5"/>
-      <c r="AT49">
-        <f>F49+L49+R49+X49+AD49+AJ49+AP49</f>
-        <v>1395000</v>
-      </c>
-      <c r="AU49">
-        <f>D49+J49+P49+V49+AB49+AH49+AN49</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:47">
+    </row>
+    <row r="50" spans="1:45">
       <c r="A50" s="19" t="s">
         <v>243</v>
       </c>
@@ -11939,18 +9648,10 @@
       <c r="M50" s="15"/>
       <c r="N50" s="4"/>
       <c r="O50" s="5"/>
-      <c r="P50" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>50000</v>
-      </c>
-      <c r="R50" s="4">
-        <v>500000</v>
-      </c>
-      <c r="S50" s="15" t="s">
-        <v>245</v>
-      </c>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="15"/>
       <c r="T50" s="4"/>
       <c r="U50" s="5"/>
       <c r="V50" s="21"/>
@@ -11977,16 +9678,8 @@
       <c r="AQ50" s="4"/>
       <c r="AR50" s="4"/>
       <c r="AS50" s="5"/>
-      <c r="AT50">
-        <f>F50+L50+R50+X50+AD50+AJ50+AP50</f>
-        <v>500000</v>
-      </c>
-      <c r="AU50">
-        <f>D50+J50+P50+V50+AB50+AH50+AN50</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:47">
+    </row>
+    <row r="51" spans="1:45">
       <c r="A51" s="19" t="s">
         <v>249</v>
       </c>
@@ -11996,18 +9689,10 @@
       <c r="C51" s="5">
         <v>1</v>
       </c>
-      <c r="D51" s="21">
-        <v>10</v>
-      </c>
-      <c r="E51">
-        <v>33000</v>
-      </c>
-      <c r="F51">
-        <v>330000</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>251</v>
-      </c>
+      <c r="D51" s="21"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51" s="16"/>
       <c r="I51" s="5"/>
       <c r="J51" s="21"/>
       <c r="K51" s="4"/>
@@ -12045,18 +9730,10 @@
       <c r="AQ51" s="4"/>
       <c r="AR51" s="4"/>
       <c r="AS51" s="5"/>
-      <c r="AT51">
-        <f>F51+L51+R51+X51+AD51+AJ51+AP51</f>
-        <v>330000</v>
-      </c>
-      <c r="AU51">
-        <f>D51+J51+P51+V51+AB51+AH51+AN51</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:47">
+    </row>
+    <row r="52" spans="1:45">
       <c r="A52" s="19" t="s">
-        <v>425</v>
+        <v>288</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>252</v>
@@ -12066,32 +9743,16 @@
       </c>
       <c r="D52" s="21"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="21">
-        <v>5</v>
-      </c>
-      <c r="K52" s="4">
-        <v>62000</v>
-      </c>
-      <c r="L52" s="4">
-        <v>310000</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>426</v>
-      </c>
+      <c r="J52" s="21"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="15"/>
       <c r="N52" s="4"/>
       <c r="O52" s="5"/>
-      <c r="P52" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>64000</v>
-      </c>
-      <c r="R52" s="4">
-        <v>320000</v>
-      </c>
-      <c r="S52" s="15" t="s">
-        <v>427</v>
-      </c>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="15"/>
       <c r="T52" s="4"/>
       <c r="U52" s="5"/>
       <c r="V52" s="21"/>
@@ -12118,16 +9779,8 @@
       <c r="AQ52" s="4"/>
       <c r="AR52" s="4"/>
       <c r="AS52" s="5"/>
-      <c r="AT52">
-        <f>F52+L52+R52+X52+AD52+AJ52+AP52</f>
-        <v>630000</v>
-      </c>
-      <c r="AU52">
-        <f>D52+J52+P52+V52+AB52+AH52+AN52</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:47">
+    </row>
+    <row r="53" spans="1:45">
       <c r="A53" s="19" t="s">
         <v>253</v>
       </c>
@@ -12137,18 +9790,10 @@
       <c r="C53" s="5">
         <v>1</v>
       </c>
-      <c r="D53" s="21">
-        <v>5</v>
-      </c>
-      <c r="E53">
-        <v>145000</v>
-      </c>
-      <c r="F53">
-        <v>725000</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>428</v>
-      </c>
+      <c r="D53" s="21"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53" s="16"/>
       <c r="I53" s="5"/>
       <c r="J53" s="21"/>
       <c r="K53" s="4"/>
@@ -12159,23 +9804,13 @@
       <c r="P53" s="21"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="15" t="s">
-        <v>429</v>
-      </c>
+      <c r="S53" s="15"/>
       <c r="T53" s="4"/>
       <c r="U53" s="5"/>
-      <c r="V53" s="21">
-        <v>5</v>
-      </c>
-      <c r="W53" s="4">
-        <v>149000</v>
-      </c>
-      <c r="X53" s="4">
-        <v>745000</v>
-      </c>
-      <c r="Y53" s="15" t="s">
-        <v>430</v>
-      </c>
+      <c r="V53" s="21"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="15"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="21"/>
@@ -12196,16 +9831,8 @@
       <c r="AQ53" s="4"/>
       <c r="AR53" s="4"/>
       <c r="AS53" s="5"/>
-      <c r="AT53">
-        <f>F53+L53+R53+X53+AD53+AJ53+AP53</f>
-        <v>1470000</v>
-      </c>
-      <c r="AU53">
-        <f>D53+J53+P53+V53+AB53+AH53+AN53</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:47">
+    </row>
+    <row r="54" spans="1:45">
       <c r="A54" s="19" t="s">
         <v>257</v>
       </c>
@@ -12253,16 +9880,8 @@
       <c r="AQ54" s="4"/>
       <c r="AR54" s="4"/>
       <c r="AS54" s="5"/>
-      <c r="AT54">
-        <f>F54+L54+R54+X54+AD54+AJ54+AP54</f>
-        <v>0</v>
-      </c>
-      <c r="AU54">
-        <f>D54+J54+P54+V54+AB54+AH54+AN54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:47">
+    </row>
+    <row r="55" spans="1:45">
       <c r="A55" s="19" t="s">
         <v>259</v>
       </c>
@@ -12310,16 +9929,8 @@
       <c r="AQ55" s="4"/>
       <c r="AR55" s="4"/>
       <c r="AS55" s="5"/>
-      <c r="AT55">
-        <f>F55+L55+R55+X55+AD55+AJ55+AP55</f>
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <f>D55+J55+P55+V55+AB55+AH55+AN55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:47">
+    </row>
+    <row r="56" spans="1:45">
       <c r="A56" s="19" t="s">
         <v>261</v>
       </c>
@@ -12367,16 +9978,8 @@
       <c r="AQ56" s="4"/>
       <c r="AR56" s="4"/>
       <c r="AS56" s="5"/>
-      <c r="AT56">
-        <f>F56+L56+R56+X56+AD56+AJ56+AP56</f>
-        <v>0</v>
-      </c>
-      <c r="AU56">
-        <f>D56+J56+P56+V56+AB56+AH56+AN56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:47">
+    </row>
+    <row r="57" spans="1:45">
       <c r="A57" s="19" t="s">
         <v>263</v>
       </c>
@@ -12424,16 +10027,8 @@
       <c r="AQ57" s="4"/>
       <c r="AR57" s="4"/>
       <c r="AS57" s="5"/>
-      <c r="AT57">
-        <f>F57+L57+R57+X57+AD57+AJ57+AP57</f>
-        <v>0</v>
-      </c>
-      <c r="AU57">
-        <f>D57+J57+P57+V57+AB57+AH57+AN57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:47">
+    </row>
+    <row r="58" spans="1:45">
       <c r="A58" s="19" t="s">
         <v>265</v>
       </c>
@@ -12481,16 +10076,8 @@
       <c r="AQ58" s="4"/>
       <c r="AR58" s="4"/>
       <c r="AS58" s="5"/>
-      <c r="AT58">
-        <f>F58+L58+R58+X58+AD58+AJ58+AP58</f>
-        <v>0</v>
-      </c>
-      <c r="AU58">
-        <f>D58+J58+P58+V58+AB58+AH58+AN58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:47">
+    </row>
+    <row r="59" spans="1:45">
       <c r="A59" s="19" t="s">
         <v>267</v>
       </c>
@@ -12538,16 +10125,8 @@
       <c r="AQ59" s="4"/>
       <c r="AR59" s="4"/>
       <c r="AS59" s="5"/>
-      <c r="AT59">
-        <f>F59+L59+R59+X59+AD59+AJ59+AP59</f>
-        <v>0</v>
-      </c>
-      <c r="AU59">
-        <f>D59+J59+P59+V59+AB59+AH59+AN59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:47">
+    </row>
+    <row r="60" spans="1:45">
       <c r="A60" s="19" t="s">
         <v>269</v>
       </c>
@@ -12595,16 +10174,8 @@
       <c r="AQ60" s="4"/>
       <c r="AR60" s="4"/>
       <c r="AS60" s="5"/>
-      <c r="AT60">
-        <f>F60+L60+R60+X60+AD60+AJ60+AP60</f>
-        <v>0</v>
-      </c>
-      <c r="AU60">
-        <f>D60+J60+P60+V60+AB60+AH60+AN60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:47">
+    </row>
+    <row r="61" spans="1:45">
       <c r="A61" s="19" t="s">
         <v>271</v>
       </c>
@@ -12652,16 +10223,8 @@
       <c r="AQ61" s="4"/>
       <c r="AR61" s="4"/>
       <c r="AS61" s="5"/>
-      <c r="AT61">
-        <f>F61+L61+R61+X61+AD61+AJ61+AP61</f>
-        <v>0</v>
-      </c>
-      <c r="AU61">
-        <f>D61+J61+P61+V61+AB61+AH61+AN61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:47">
+    </row>
+    <row r="62" spans="1:45">
       <c r="A62" s="19" t="s">
         <v>273</v>
       </c>
@@ -12709,16 +10272,8 @@
       <c r="AQ62" s="4"/>
       <c r="AR62" s="4"/>
       <c r="AS62" s="5"/>
-      <c r="AT62">
-        <f>F62+L62+R62+X62+AD62+AJ62+AP62</f>
-        <v>0</v>
-      </c>
-      <c r="AU62">
-        <f>D62+J62+P62+V62+AB62+AH62+AN62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:47">
+    </row>
+    <row r="63" spans="1:45">
       <c r="A63" s="19" t="s">
         <v>275</v>
       </c>
@@ -12766,16 +10321,8 @@
       <c r="AQ63" s="4"/>
       <c r="AR63" s="4"/>
       <c r="AS63" s="5"/>
-      <c r="AT63">
-        <f>F63+L63+R63+X63+AD63+AJ63+AP63</f>
-        <v>0</v>
-      </c>
-      <c r="AU63">
-        <f>D63+J63+P63+V63+AB63+AH63+AN63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:47">
+    </row>
+    <row r="64" spans="1:45">
       <c r="A64" s="19" t="s">
         <v>283</v>
       </c>
@@ -12823,50 +10370,26 @@
       <c r="AQ64" s="4"/>
       <c r="AR64" s="4"/>
       <c r="AS64" s="5"/>
-      <c r="AT64">
-        <f>F64+L64+R64+X64+AD64+AJ64+AP64</f>
-        <v>0</v>
-      </c>
-      <c r="AU64">
-        <f>D64+J64+P64+V64+AB64+AH64+AN64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:47">
+    </row>
+    <row r="65" spans="1:45">
       <c r="A65" s="19" t="s">
-        <v>431</v>
+        <v>289</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>432</v>
+        <v>290</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
       </c>
-      <c r="D65" s="21">
-        <v>15</v>
-      </c>
-      <c r="E65" s="4">
-        <v>58599</v>
-      </c>
-      <c r="F65" s="4">
-        <v>878985</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>433</v>
-      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="16"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="21">
-        <v>5</v>
-      </c>
-      <c r="K65" s="4">
-        <v>88540</v>
-      </c>
-      <c r="L65" s="4">
-        <v>442700</v>
-      </c>
-      <c r="M65" s="15" t="s">
-        <v>434</v>
-      </c>
+      <c r="J65" s="21"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="15"/>
       <c r="N65" s="4"/>
       <c r="O65" s="5"/>
       <c r="P65" s="21"/>
@@ -12875,18 +10398,10 @@
       <c r="S65" s="15"/>
       <c r="T65" s="4"/>
       <c r="U65" s="5"/>
-      <c r="V65" s="21">
-        <v>5</v>
-      </c>
-      <c r="W65" s="4">
-        <v>95472</v>
-      </c>
-      <c r="X65" s="4">
-        <v>477360</v>
-      </c>
-      <c r="Y65" s="15" t="s">
-        <v>435</v>
-      </c>
+      <c r="V65" s="21"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="15"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="5"/>
       <c r="AB65" s="21"/>
@@ -12907,21 +10422,13 @@
       <c r="AQ65" s="4"/>
       <c r="AR65" s="4"/>
       <c r="AS65" s="5"/>
-      <c r="AT65">
-        <f>F65+L65+R65+X65+AD65+AJ65+AP65</f>
-        <v>1799045</v>
-      </c>
-      <c r="AU65">
-        <f>D65+J65+P65+V65+AB65+AH65+AN65</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:47">
+    </row>
+    <row r="66" spans="1:45">
       <c r="A66" s="19" t="s">
-        <v>436</v>
+        <v>291</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>437</v>
+        <v>292</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
@@ -12934,32 +10441,16 @@
       <c r="M66" s="15"/>
       <c r="N66" s="4"/>
       <c r="O66" s="5"/>
-      <c r="P66" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="4">
-        <v>62000</v>
-      </c>
-      <c r="R66" s="4">
-        <v>310000</v>
-      </c>
-      <c r="S66" s="15" t="s">
-        <v>438</v>
-      </c>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="15"/>
       <c r="T66" s="4"/>
       <c r="U66" s="5"/>
-      <c r="V66" s="21">
-        <v>5</v>
-      </c>
-      <c r="W66" s="4">
-        <v>54000</v>
-      </c>
-      <c r="X66" s="4">
-        <v>270000</v>
-      </c>
-      <c r="Y66" s="15" t="s">
-        <v>439</v>
-      </c>
+      <c r="V66" s="21"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="15"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="5"/>
       <c r="AB66" s="21"/>
@@ -12980,78 +10471,38 @@
       <c r="AQ66" s="4"/>
       <c r="AR66" s="4"/>
       <c r="AS66" s="5"/>
-      <c r="AT66">
-        <f>F66+L66+R66+X66+AD66+AJ66+AP66</f>
-        <v>580000</v>
-      </c>
-      <c r="AU66">
-        <f>D66+J66+P66+V66+AB66+AH66+AN66</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:47">
+    </row>
+    <row r="67" spans="1:45">
       <c r="A67" s="19" t="s">
-        <v>440</v>
+        <v>293</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>441</v>
+        <v>294</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
-      <c r="D67" s="21">
-        <v>5</v>
-      </c>
-      <c r="E67" s="4">
-        <v>91000</v>
-      </c>
-      <c r="F67" s="4">
-        <v>455000</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>442</v>
-      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="16"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="21">
-        <v>5</v>
-      </c>
-      <c r="K67" s="4">
-        <v>92000</v>
-      </c>
-      <c r="L67" s="4">
-        <v>460000</v>
-      </c>
-      <c r="M67" s="15" t="s">
-        <v>443</v>
-      </c>
+      <c r="J67" s="21"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="15"/>
       <c r="N67" s="4"/>
       <c r="O67" s="5"/>
-      <c r="P67" s="21">
-        <v>5</v>
-      </c>
-      <c r="Q67" s="4">
-        <v>89000</v>
-      </c>
-      <c r="R67" s="4">
-        <v>445000</v>
-      </c>
-      <c r="S67" s="15" t="s">
-        <v>444</v>
-      </c>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="15"/>
       <c r="T67" s="4"/>
       <c r="U67" s="5"/>
-      <c r="V67" s="21">
-        <v>5</v>
-      </c>
-      <c r="W67" s="4">
-        <v>98000</v>
-      </c>
-      <c r="X67" s="4">
-        <v>490000</v>
-      </c>
-      <c r="Y67" s="15" t="s">
-        <v>445</v>
-      </c>
+      <c r="V67" s="21"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="15"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="5"/>
       <c r="AB67" s="21"/>
@@ -13072,21 +10523,13 @@
       <c r="AQ67" s="4"/>
       <c r="AR67" s="4"/>
       <c r="AS67" s="5"/>
-      <c r="AT67">
-        <f>F67+L67+R67+X67+AD67+AJ67+AP67</f>
-        <v>1850000</v>
-      </c>
-      <c r="AU67">
-        <f>D67+J67+P67+V67+AB67+AH67+AN67</f>
-        <v>20</v>
-      </c>
     </row>
     <row r="68" spans="1:47">
       <c r="A68" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>447</v>
+        <v>295</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -13094,39 +10537,38 @@
       <c r="I68" s="5"/>
       <c r="O68" s="5"/>
       <c r="U68" s="5"/>
-      <c r="V68" s="4">
-        <v>5</v>
-      </c>
-      <c r="W68" s="4">
-        <v>86000</v>
-      </c>
-      <c r="X68" s="4">
-        <f>W68*V68</f>
-        <v>430000</v>
-      </c>
-      <c r="Y68" s="15">
-        <v>0.49287037037037</v>
-      </c>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="15"/>
       <c r="Z68"/>
       <c r="AA68" s="5"/>
+      <c r="AB68" s="23"/>
+      <c r="AC68" s="23"/>
+      <c r="AD68" s="23"/>
+      <c r="AE68" s="23"/>
       <c r="AG68" s="5"/>
-      <c r="AM68" s="5"/>
-      <c r="AS68" s="5"/>
-      <c r="AT68">
-        <f>F68+L68+R68+X68+AD68+AJ68+AP68</f>
-        <v>430000</v>
-      </c>
-      <c r="AU68">
-        <f>D68+J68+P68+V68+AB68+AH68+AN68</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:45">
+      <c r="AH68" s="24"/>
+      <c r="AI68" s="24"/>
+      <c r="AJ68" s="24"/>
+      <c r="AK68" s="24"/>
+      <c r="AL68" s="24"/>
+      <c r="AM68" s="25"/>
+      <c r="AN68" s="24"/>
+      <c r="AO68" s="24"/>
+      <c r="AP68" s="24"/>
+      <c r="AQ68" s="24"/>
+      <c r="AR68" s="24"/>
+      <c r="AS68" s="25"/>
+      <c r="AT68" s="24"/>
+      <c r="AU68" s="24"/>
+    </row>
+    <row r="69" spans="1:47">
       <c r="A69" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>449</v>
+        <v>297</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
@@ -13135,16 +10577,32 @@
       <c r="O69" s="5"/>
       <c r="U69" s="5"/>
       <c r="AA69" s="5"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="23"/>
+      <c r="AE69" s="23"/>
       <c r="AG69" s="5"/>
-      <c r="AM69" s="5"/>
-      <c r="AS69" s="5"/>
-    </row>
-    <row r="70" spans="1:45">
+      <c r="AH69" s="24"/>
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="24"/>
+      <c r="AL69" s="24"/>
+      <c r="AM69" s="25"/>
+      <c r="AN69" s="24"/>
+      <c r="AO69" s="24"/>
+      <c r="AP69" s="24"/>
+      <c r="AQ69" s="24"/>
+      <c r="AR69" s="24"/>
+      <c r="AS69" s="25"/>
+      <c r="AT69" s="24"/>
+      <c r="AU69" s="24"/>
+    </row>
+    <row r="70" spans="1:47">
       <c r="A70" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>451</v>
+        <v>299</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -13153,16 +10611,32 @@
       <c r="O70" s="5"/>
       <c r="U70" s="5"/>
       <c r="AA70" s="5"/>
+      <c r="AB70" s="23"/>
+      <c r="AC70" s="23"/>
+      <c r="AD70" s="23"/>
+      <c r="AE70" s="23"/>
       <c r="AG70" s="5"/>
-      <c r="AM70" s="5"/>
-      <c r="AS70" s="5"/>
-    </row>
-    <row r="71" spans="1:45">
+      <c r="AH70" s="24"/>
+      <c r="AI70" s="24"/>
+      <c r="AJ70" s="24"/>
+      <c r="AK70" s="24"/>
+      <c r="AL70" s="24"/>
+      <c r="AM70" s="25"/>
+      <c r="AN70" s="24"/>
+      <c r="AO70" s="24"/>
+      <c r="AP70" s="24"/>
+      <c r="AQ70" s="24"/>
+      <c r="AR70" s="24"/>
+      <c r="AS70" s="25"/>
+      <c r="AT70" s="24"/>
+      <c r="AU70" s="24"/>
+    </row>
+    <row r="71" spans="1:47">
       <c r="A71" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>453</v>
+        <v>301</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -13171,63 +10645,143 @@
       <c r="O71" s="5"/>
       <c r="U71" s="5"/>
       <c r="AA71" s="5"/>
+      <c r="AB71" s="23"/>
+      <c r="AC71" s="23"/>
+      <c r="AD71" s="23"/>
+      <c r="AE71" s="23"/>
       <c r="AG71" s="5"/>
-      <c r="AM71" s="5"/>
-      <c r="AS71" s="5"/>
-    </row>
-    <row r="72" spans="3:45">
+      <c r="AH71" s="24"/>
+      <c r="AI71" s="24"/>
+      <c r="AJ71" s="24"/>
+      <c r="AK71" s="24"/>
+      <c r="AL71" s="24"/>
+      <c r="AM71" s="25"/>
+      <c r="AN71" s="24"/>
+      <c r="AO71" s="24"/>
+      <c r="AP71" s="24"/>
+      <c r="AQ71" s="24"/>
+      <c r="AR71" s="24"/>
+      <c r="AS71" s="25"/>
+      <c r="AT71" s="24"/>
+      <c r="AU71" s="24"/>
+    </row>
+    <row r="72" spans="1:47">
+      <c r="A72" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="C72" s="5"/>
       <c r="I72" s="5"/>
       <c r="O72" s="5"/>
       <c r="U72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AG72" s="5"/>
-      <c r="AM72" s="5"/>
-      <c r="AS72" s="5"/>
-    </row>
-    <row r="73" spans="3:45">
+      <c r="AH72" s="24"/>
+      <c r="AI72" s="24"/>
+      <c r="AJ72" s="24"/>
+      <c r="AK72" s="24"/>
+      <c r="AL72" s="24"/>
+      <c r="AM72" s="25"/>
+      <c r="AN72" s="24"/>
+      <c r="AO72" s="24"/>
+      <c r="AP72" s="24"/>
+      <c r="AQ72" s="24"/>
+      <c r="AR72" s="24"/>
+      <c r="AS72" s="25"/>
+      <c r="AT72" s="24"/>
+      <c r="AU72" s="24"/>
+    </row>
+    <row r="73" spans="3:47">
       <c r="C73" s="5"/>
       <c r="I73" s="5"/>
       <c r="O73" s="5"/>
       <c r="U73" s="5"/>
       <c r="AA73" s="5"/>
       <c r="AG73" s="5"/>
-      <c r="AM73" s="5"/>
-      <c r="AS73" s="5"/>
-    </row>
-    <row r="74" spans="2:45">
-      <c r="B74" s="23"/>
+      <c r="AH73" s="24"/>
+      <c r="AI73" s="24"/>
+      <c r="AJ73" s="24"/>
+      <c r="AK73" s="24"/>
+      <c r="AL73" s="24"/>
+      <c r="AM73" s="25"/>
+      <c r="AN73" s="24"/>
+      <c r="AO73" s="24"/>
+      <c r="AP73" s="24"/>
+      <c r="AQ73" s="24"/>
+      <c r="AR73" s="24"/>
+      <c r="AS73" s="25"/>
+      <c r="AT73" s="24"/>
+      <c r="AU73" s="24"/>
+    </row>
+    <row r="74" spans="3:47">
       <c r="C74" s="5"/>
       <c r="I74" s="5"/>
       <c r="O74" s="5"/>
       <c r="U74" s="5"/>
       <c r="AA74" s="5"/>
       <c r="AG74" s="5"/>
-      <c r="AM74" s="5"/>
-      <c r="AS74" s="5"/>
-    </row>
-    <row r="75" spans="3:45">
+      <c r="AH74" s="24"/>
+      <c r="AI74" s="24"/>
+      <c r="AJ74" s="24"/>
+      <c r="AK74" s="24"/>
+      <c r="AL74" s="24"/>
+      <c r="AM74" s="25"/>
+      <c r="AN74" s="24"/>
+      <c r="AO74" s="24"/>
+      <c r="AP74" s="24"/>
+      <c r="AQ74" s="24"/>
+      <c r="AR74" s="24"/>
+      <c r="AS74" s="25"/>
+      <c r="AT74" s="24"/>
+      <c r="AU74" s="24"/>
+    </row>
+    <row r="75" spans="3:47">
       <c r="C75" s="5"/>
       <c r="I75" s="5"/>
       <c r="O75" s="5"/>
       <c r="U75" s="5"/>
       <c r="AA75" s="5"/>
       <c r="AG75" s="5"/>
-      <c r="AM75" s="5"/>
-      <c r="AS75" s="5"/>
-    </row>
-    <row r="76" spans="3:45">
+      <c r="AH75" s="24"/>
+      <c r="AI75" s="24"/>
+      <c r="AJ75" s="24"/>
+      <c r="AK75" s="24"/>
+      <c r="AL75" s="24"/>
+      <c r="AM75" s="25"/>
+      <c r="AN75" s="24"/>
+      <c r="AO75" s="24"/>
+      <c r="AP75" s="24"/>
+      <c r="AQ75" s="24"/>
+      <c r="AR75" s="24"/>
+      <c r="AS75" s="25"/>
+      <c r="AT75" s="24"/>
+      <c r="AU75" s="24"/>
+    </row>
+    <row r="76" spans="3:47">
       <c r="C76" s="5"/>
       <c r="I76" s="5"/>
       <c r="O76" s="5"/>
       <c r="U76" s="5"/>
       <c r="AA76" s="5"/>
       <c r="AG76" s="5"/>
-      <c r="AM76" s="5"/>
-      <c r="AS76" s="5"/>
-    </row>
-    <row r="77" spans="2:45">
-      <c r="B77" s="23"/>
+      <c r="AH76" s="24"/>
+      <c r="AI76" s="24"/>
+      <c r="AJ76" s="24"/>
+      <c r="AK76" s="24"/>
+      <c r="AL76" s="24"/>
+      <c r="AM76" s="25"/>
+      <c r="AN76" s="24"/>
+      <c r="AO76" s="24"/>
+      <c r="AP76" s="24"/>
+      <c r="AQ76" s="24"/>
+      <c r="AR76" s="24"/>
+      <c r="AS76" s="25"/>
+      <c r="AT76" s="24"/>
+      <c r="AU76" s="24"/>
+    </row>
+    <row r="77" spans="3:45">
       <c r="C77" s="5"/>
       <c r="I77" s="5"/>
       <c r="O77" s="5"/>
